--- a/Project 2/Report/Project2Data.xlsx
+++ b/Project 2/Report/Project2Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdjoh\Documents\GitHub\computer-architecture\Project 2\Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sleon\Documents\Git\computer-architecture\Project 2\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="17250" windowHeight="5670" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1650" windowWidth="17250" windowHeight="5670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="127">
   <si>
     <t>Input(s)</t>
   </si>
@@ -398,6 +398,15 @@
   </si>
   <si>
     <t>ForwardB</t>
+  </si>
+  <si>
+    <t>Branch Predictor</t>
+  </si>
+  <si>
+    <t>Taken</t>
+  </si>
+  <si>
+    <t>Prediction</t>
   </si>
 </sst>
 </file>
@@ -1553,10 +1562,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,9 +1580,11 @@
     <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>76</v>
       </c>
@@ -1594,8 +1605,12 @@
         <v>115</v>
       </c>
       <c r="N1" s="11"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P1" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q1" s="11"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1626,8 +1641,14 @@
       <c r="N2" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -1658,8 +1679,14 @@
       <c r="N3" s="10" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>79</v>
       </c>
@@ -1690,8 +1717,12 @@
       <c r="N4" s="10" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q4" s="10"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>77</v>
       </c>
@@ -1718,8 +1749,10 @@
         <v>118</v>
       </c>
       <c r="N5" s="10"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -1746,8 +1779,10 @@
         <v>119</v>
       </c>
       <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="10"/>
       <c r="D7" s="1" t="s">
@@ -1770,8 +1805,10 @@
         <v>120</v>
       </c>
       <c r="N7" s="10"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P7" s="1"/>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="10"/>
       <c r="D8" s="1" t="s">
@@ -1794,8 +1831,10 @@
         <v>121</v>
       </c>
       <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P8" s="1"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="10"/>
       <c r="D9" s="1" t="s">
@@ -1814,8 +1853,10 @@
       <c r="K9" s="10"/>
       <c r="M9" s="1"/>
       <c r="N9" s="10"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P9" s="1"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="10"/>
       <c r="D10" s="1" t="s">
@@ -1834,8 +1875,10 @@
       <c r="K10" s="10"/>
       <c r="M10" s="1"/>
       <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P10" s="1"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="10"/>
       <c r="D11" s="1" t="s">
@@ -1852,8 +1895,10 @@
       <c r="K11" s="10"/>
       <c r="M11" s="1"/>
       <c r="N11" s="10"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P11" s="1"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="10"/>
       <c r="D12" s="1" t="s">
@@ -1868,8 +1913,10 @@
       <c r="K12" s="10"/>
       <c r="M12" s="1"/>
       <c r="N12" s="10"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P12" s="1"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="10"/>
       <c r="D13" s="1" t="s">
@@ -1882,8 +1929,10 @@
       <c r="K13" s="10"/>
       <c r="M13" s="1"/>
       <c r="N13" s="10"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P13" s="1"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="10"/>
       <c r="D14" s="1"/>
@@ -1894,8 +1943,10 @@
       <c r="K14" s="10"/>
       <c r="M14" s="1"/>
       <c r="N14" s="10"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="10"/>
       <c r="D15" s="1"/>
@@ -1906,8 +1957,10 @@
       <c r="K15" s="10"/>
       <c r="M15" s="1"/>
       <c r="N15" s="10"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P15" s="1"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="10"/>
       <c r="D16" s="1"/>
@@ -1918,6 +1971,8 @@
       <c r="K16" s="10"/>
       <c r="M16" s="1"/>
       <c r="N16" s="10"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -1948,7 +2003,8 @@
       <c r="B20" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
@@ -1956,6 +2012,7 @@
     <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Project 2/Report/Project2Data.xlsx
+++ b/Project 2/Report/Project2Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sleon\Documents\Git\computer-architecture\Project 2\Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdjoh\Documents\GitHub\computer-architecture\Project 2\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="135">
   <si>
     <t>Input(s)</t>
   </si>
@@ -407,6 +407,30 @@
   </si>
   <si>
     <t>Prediction</t>
+  </si>
+  <si>
+    <t>2-Bit Branch Predictor</t>
+  </si>
+  <si>
+    <t>IsTaken</t>
+  </si>
+  <si>
+    <t>Hazard Detection Unit</t>
+  </si>
+  <si>
+    <t>BranchPC</t>
+  </si>
+  <si>
+    <t>RegFlush</t>
+  </si>
+  <si>
+    <t>DataHazard_1</t>
+  </si>
+  <si>
+    <t>DataHazard_2</t>
+  </si>
+  <si>
+    <t>BranchPC_OUT</t>
   </si>
 </sst>
 </file>
@@ -1562,10 +1586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,9 +1606,12 @@
     <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.42578125" customWidth="1"/>
     <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>76</v>
       </c>
@@ -1609,8 +1636,16 @@
         <v>124</v>
       </c>
       <c r="Q1" s="11"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S1" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="T1" s="11"/>
+      <c r="V1" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="W1" s="11"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1647,8 +1682,20 @@
       <c r="Q2" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,13 +1727,25 @@
         <v>122</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="Q3" s="10" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>79</v>
       </c>
@@ -1717,12 +1776,20 @@
       <c r="N4" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="P4" s="1"/>
       <c r="Q4" s="10"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="10"/>
+      <c r="V4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>77</v>
       </c>
@@ -1751,8 +1818,16 @@
       <c r="N5" s="10"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="10"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S5" s="1"/>
+      <c r="T5" s="10"/>
+      <c r="V5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -1781,8 +1856,14 @@
       <c r="N6" s="10"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="10"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="10"/>
       <c r="D7" s="1" t="s">
@@ -1807,8 +1888,12 @@
       <c r="N7" s="10"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="10"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" s="10"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="10"/>
       <c r="D8" s="1" t="s">
@@ -1833,8 +1918,12 @@
       <c r="N8" s="10"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="10"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W8" s="10"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="10"/>
       <c r="D9" s="1" t="s">
@@ -1855,8 +1944,10 @@
       <c r="N9" s="10"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="10"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V9" s="1"/>
+      <c r="W9" s="10"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="10"/>
       <c r="D10" s="1" t="s">
@@ -1877,8 +1968,10 @@
       <c r="N10" s="10"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="10"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V10" s="1"/>
+      <c r="W10" s="10"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="10"/>
       <c r="D11" s="1" t="s">
@@ -1897,8 +1990,10 @@
       <c r="N11" s="10"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="10"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V11" s="1"/>
+      <c r="W11" s="10"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="10"/>
       <c r="D12" s="1" t="s">
@@ -1915,8 +2010,10 @@
       <c r="N12" s="10"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="10"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V12" s="1"/>
+      <c r="W12" s="10"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="10"/>
       <c r="D13" s="1" t="s">
@@ -1931,8 +2028,10 @@
       <c r="N13" s="10"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="10"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V13" s="1"/>
+      <c r="W13" s="10"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="10"/>
       <c r="D14" s="1"/>
@@ -1945,8 +2044,10 @@
       <c r="N14" s="10"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="10"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V14" s="1"/>
+      <c r="W14" s="10"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="10"/>
       <c r="D15" s="1"/>
@@ -1959,8 +2060,10 @@
       <c r="N15" s="10"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="10"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="V15" s="1"/>
+      <c r="W15" s="10"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="10"/>
       <c r="D16" s="1"/>
@@ -2003,7 +2106,9 @@
       <c r="B20" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="V1:W1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
